--- a/src/test/resources/TestData/LiveProject_Google_TestData.xlsx
+++ b/src/test/resources/TestData/LiveProject_Google_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E18BBD1E-F663-4912-98F5-A8F9C13D58DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{47D16FEA-22C7-4B30-97CA-3DCE9630B09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19455" windowHeight="13830" activeTab="1" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="19485" windowHeight="16500" activeTab="1" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="testsheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Search Data</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>TC ID/Name</t>
+  </si>
+  <si>
+    <t>testingGoogleSearch</t>
   </si>
 </sst>
 </file>
@@ -431,45 +437,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E5A4EB-72C8-0E44-91C4-D3652BB51352}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
